--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="c5mnist" sheetId="1" r:id="rId1"/>
     <sheet name="c5mnist (2)" sheetId="3" r:id="rId2"/>
     <sheet name="c5cifar" sheetId="4" r:id="rId3"/>
     <sheet name="c5cifar (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="c6mnist" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>Regularization of Neural Networks using DropConnect</t>
   </si>
@@ -432,6 +433,14 @@
   </si>
   <si>
     <t>Maxout Networks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -773,7 +782,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -809,6 +818,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -823,125 +834,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1057,6 +950,83 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1072,28 +1042,53 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="3">
-    <tableColumn id="2" name="手法" dataDxfId="2"/>
-    <tableColumn id="3" name="発表学会/雑誌" dataDxfId="1"/>
-    <tableColumn id="1" name="分類誤差(%)" dataDxfId="0"/>
+    <tableColumn id="2" name="手法" dataDxfId="9"/>
+    <tableColumn id="3" name="発表学会/雑誌" dataDxfId="8"/>
+    <tableColumn id="1" name="分類誤差(%)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル24" displayName="テーブル24" ref="A1:C24" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル24" displayName="テーブル24" ref="A1:C24" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="2" name="論文名" dataDxfId="9"/>
-    <tableColumn id="3" name="発表学会/雑誌" dataDxfId="8"/>
-    <tableColumn id="1" name="分類誤差" dataDxfId="7"/>
+    <tableColumn id="2" name="論文名" dataDxfId="2"/>
+    <tableColumn id="3" name="発表学会/雑誌" dataDxfId="1"/>
+    <tableColumn id="1" name="分類誤差" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1426,7 +1421,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2650,4 +2645,47 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="c5mnist" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="c5cifar" sheetId="4" r:id="rId3"/>
     <sheet name="c5cifar (2)" sheetId="5" r:id="rId4"/>
     <sheet name="c6mnist" sheetId="6" r:id="rId5"/>
+    <sheet name="DLT_DBN_CIFAR" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -2651,7 +2652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
@@ -2688,4 +2691,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="c5mnist" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="c5cifar (2)" sheetId="5" r:id="rId4"/>
     <sheet name="c6mnist" sheetId="6" r:id="rId5"/>
     <sheet name="DLT_DBN_CIFAR" sheetId="7" r:id="rId6"/>
+    <sheet name="DL_Libraries" sheetId="8" r:id="rId7"/>
+    <sheet name="GPU_Libraries" sheetId="9" r:id="rId8"/>
+    <sheet name="noDL_Libraries" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="198">
   <si>
     <t>Regularization of Neural Networks using DropConnect</t>
   </si>
@@ -442,6 +445,386 @@
   </si>
   <si>
     <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日</t>
+    <rPh sb="0" eb="5">
+      <t>サイシュウコウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPUサポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式最適化</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pylearn2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maxout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Github</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deep Learning Tutorial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nolearn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sugomori Deep Learning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Torch7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rnnlib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o(Theano)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文最小誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>5サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pycuda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDAMat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deep Learning Toolbox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MNIST 0.45%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dropconnect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコード名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dropconnect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++/CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MNIST 0.21%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ivan-vasilev / neuralnetworks</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/ivan-vasilev/neuralnetworks</t>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mPot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~ranzato/publications/mPoT/mPoT.html</t>
+  </si>
+  <si>
+    <t>Python,C++,Java,Scala</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Factored Conditional RBM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.nyu.edu/~gwtaylor/publications/icml2009/code/</t>
+  </si>
+  <si>
+    <t>http://www.cs.nyu.edu/~gwtaylor/publications/nips2006mhmublv/code.html</t>
+  </si>
+  <si>
+    <t>CUV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~tijmen/gnumpyDoc.html</t>
+  </si>
+  <si>
+    <t>gnumpy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~hinton/MatlabForSciencePaper.html</t>
+  </si>
+  <si>
+    <t>rnnlm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://rnnlm.org/</t>
+  </si>
+  <si>
+    <t>http://sourceforge.net/p/rnnl/wiki/Home/</t>
+  </si>
+  <si>
+    <t>RNNなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/rasmusbergpalm/DeepLearnToolbox</t>
+  </si>
+  <si>
+    <t>Convolutional Autoencoders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyunghyuncho / deepmat</t>
+  </si>
+  <si>
+    <t>DBM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://torch.ch/</t>
+  </si>
+  <si>
+    <t>Hebel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/hannes-brt/hebel</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyBrain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://pybrain.org/docs/</t>
+  </si>
+  <si>
+    <t>Recurrent Network</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBLearn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://eblearn.cs.nyu.edu:21991/doku.php</t>
+  </si>
+  <si>
+    <t>cudacnn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://bitbucket.org/intelligenceagent/cudacnn-public/wiki/Home</t>
+  </si>
+  <si>
+    <t>cuda-convnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://code.google.com/p/cuda-convnet/</t>
+  </si>
+  <si>
+    <t>https://github.com/kyunghyuncho/deepmat</t>
+  </si>
+  <si>
+    <t>morb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/benanne/morb</t>
+  </si>
+  <si>
+    <t>http://packages.python.org/nolearn/</t>
+  </si>
+  <si>
+    <t>http://cs.nyu.edu/~wanli/dropc/</t>
+  </si>
+  <si>
+    <t>https://github.com/lisa-lab/pylearn2</t>
+  </si>
+  <si>
+    <t>http://deeplearning.net/tutorial/intro.html</t>
+  </si>
+  <si>
+    <t>o(Theano)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RNN-RBM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/yusugomori/DeepLearning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lua</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o(オリジナル)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -501,7 +884,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -769,8 +1152,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -782,8 +1174,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -821,19 +1249,59 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="47">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2697,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2711,4 +3179,530 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="27" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="30" customFormat="1">
+      <c r="A2" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="E2" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="29">
+        <v>41675</v>
+      </c>
+      <c r="M3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="29">
+        <v>41524</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="29">
+        <v>41542</v>
+      </c>
+      <c r="M8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L9" s="29">
+        <v>41516</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="c5mnist" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="202">
   <si>
     <t>Regularization of Neural Networks using DropConnect</t>
   </si>
@@ -555,19 +555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>論文最小誤差</t>
-    <rPh sb="0" eb="2">
-      <t>ロンブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>5サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hinton</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -585,10 +572,6 @@
   </si>
   <si>
     <t>Deep Learning Toolbox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MNIST 0.45%</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -615,10 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MNIST 0.21%</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,24 +632,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mPot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.cs.toronto.edu/~ranzato/publications/mPoT/mPoT.html</t>
-  </si>
-  <si>
     <t>Python,C++,Java,Scala</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Factored Conditional RBM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.cs.nyu.edu/~gwtaylor/publications/icml2009/code/</t>
-  </si>
-  <si>
     <t>http://www.cs.nyu.edu/~gwtaylor/publications/nips2006mhmublv/code.html</t>
   </si>
   <si>
@@ -688,13 +653,6 @@
     <t>http://www.cs.toronto.edu/~hinton/MatlabForSciencePaper.html</t>
   </si>
   <si>
-    <t>rnnlm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://rnnlm.org/</t>
-  </si>
-  <si>
     <t>http://sourceforge.net/p/rnnl/wiki/Home/</t>
   </si>
   <si>
@@ -713,9 +671,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kyunghyuncho / deepmat</t>
-  </si>
-  <si>
     <t>DBM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,10 +700,6 @@
     <t>http://pybrain.org/docs/</t>
   </si>
   <si>
-    <t>Recurrent Network</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EBLearn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,7 +775,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>o(オリジナル)</t>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deepmat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyCUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++,Matlab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KALDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://kaldi.sourceforge.net/nnet1.html</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RNN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1162,7 +1172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1210,8 +1220,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1253,8 +1319,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="103">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1278,6 +1345,34 @@
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1302,6 +1397,34 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -3183,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3196,18 +3319,17 @@
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="27" customFormat="1">
+    <row r="1" spans="1:12" s="27" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>105</v>
@@ -3221,58 +3343,52 @@
       <c r="E1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G1" s="27" t="s">
+        <v>112</v>
+      </c>
       <c r="H1" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="30" customFormat="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="13"/>
       <c r="E2" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
@@ -3283,32 +3399,29 @@
       <c r="E3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>125</v>
+      <c r="H3" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="29">
+      <c r="K3" s="29">
         <v>41675</v>
       </c>
-      <c r="M3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -3322,22 +3435,22 @@
         <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>114</v>
+        <v>180</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -3347,16 +3460,19 @@
       <c r="D5" t="s">
         <v>114</v>
       </c>
-      <c r="M5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="F5" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
@@ -3364,251 +3480,271 @@
       <c r="D6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>143</v>
+      <c r="F6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="29">
+      <c r="K6" s="29">
         <v>41524</v>
       </c>
-      <c r="M6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>143</v>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>184</v>
+      </c>
+      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L8" s="29">
-        <v>41542</v>
-      </c>
-      <c r="M8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="29">
+        <v>41516</v>
+      </c>
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>162</v>
+        <v>127</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
       </c>
       <c r="I9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="29">
-        <v>41516</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s">
-        <v>141</v>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
       </c>
       <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="29">
+        <v>41651</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>132</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
         <v>114</v>
       </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" t="s">
-        <v>164</v>
+      <c r="F11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
         <v>118</v>
       </c>
-      <c r="M11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="M13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
         <v>114</v>
       </c>
-      <c r="E15" t="s">
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>167</v>
       </c>
-      <c r="I15" t="s">
-        <v>165</v>
-      </c>
-      <c r="M15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
         <v>170</v>
       </c>
-      <c r="E16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>173</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
-      </c>
-      <c r="M17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>176</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="M18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>178</v>
-      </c>
-      <c r="M19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" t="s">
-        <v>181</v>
-      </c>
-      <c r="M20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" t="s">
-        <v>185</v>
+        <v>195</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3635,35 +3771,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3826,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="13"/>

--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="217">
   <si>
     <t>Regularization of Neural Networks using DropConnect</t>
   </si>
@@ -482,10 +482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数式最適化</t>
     <rPh sb="0" eb="2">
       <t>スウシキ</t>
@@ -532,309 +528,398 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sugomori Deep Learning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Torch7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rnnlib</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o(Theano)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他</t>
+    <t>pycuda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDAMat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dropconnect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dropconnect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++/CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/ivan-vasilev/neuralnetworks</t>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.nyu.edu/~gwtaylor/publications/nips2006mhmublv/code.html</t>
+  </si>
+  <si>
+    <t>CUV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~tijmen/gnumpyDoc.html</t>
+  </si>
+  <si>
+    <t>gnumpy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~hinton/MatlabForSciencePaper.html</t>
+  </si>
+  <si>
+    <t>http://sourceforge.net/p/rnnl/wiki/Home/</t>
+  </si>
+  <si>
+    <t>RNNなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/rasmusbergpalm/DeepLearnToolbox</t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://torch.ch/</t>
+  </si>
+  <si>
+    <t>Hebel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/hannes-brt/hebel</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyBrain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://pybrain.org/docs/</t>
+  </si>
+  <si>
+    <t>EBLearn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://eblearn.cs.nyu.edu:21991/doku.php</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/intelligenceagent/cudacnn-public/wiki/Home</t>
+  </si>
+  <si>
+    <t>cuda-convnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://code.google.com/p/cuda-convnet/</t>
+  </si>
+  <si>
+    <t>https://github.com/kyunghyuncho/deepmat</t>
+  </si>
+  <si>
+    <t>http://packages.python.org/nolearn/</t>
+  </si>
+  <si>
+    <t>http://cs.nyu.edu/~wanli/dropc/</t>
+  </si>
+  <si>
+    <t>https://github.com/lisa-lab/pylearn2</t>
+  </si>
+  <si>
+    <t>http://deeplearning.net/tutorial/intro.html</t>
+  </si>
+  <si>
+    <t>https://github.com/yusugomori/DeepLearning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lua</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deepmat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyCUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++,Matlab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KALDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://kaldi.sourceforge.net/nnet1.html</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBM,GSN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開場所</t>
+    <rPh sb="0" eb="4">
+      <t>コウカイバショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専用ページ</t>
+    <rPh sb="0" eb="2">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deep Learning Toolbox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hinton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RNNLIB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sourceforge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Github</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(記載無し)</t>
+    <rPh sb="1" eb="3">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bitbucket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sourceforge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ivan-vasilev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sugomori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CudaCnn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリor作者の名前</t>
+    <rPh sb="7" eb="9">
+      <t>サクシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他深層学習</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hinton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pycuda</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Theano</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CUDAMat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deep Learning Toolbox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dropconnect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソースコード名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
+    <rPh sb="3" eb="7">
+      <t>シンソウガクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Dropconnect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C++/CUDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MATLAB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>scikit-learn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ivan-vasilev / neuralnetworks</t>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/ivan-vasilev/neuralnetworks</t>
-  </si>
-  <si>
-    <t>Java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Python,C++,Java,Scala</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.cs.nyu.edu/~gwtaylor/publications/nips2006mhmublv/code.html</t>
-  </si>
-  <si>
-    <t>CUV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.cs.toronto.edu/~tijmen/gnumpyDoc.html</t>
-  </si>
-  <si>
-    <t>gnumpy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.cs.toronto.edu/~hinton/MatlabForSciencePaper.html</t>
-  </si>
-  <si>
-    <t>http://sourceforge.net/p/rnnl/wiki/Home/</t>
-  </si>
-  <si>
-    <t>RNNなど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/rasmusbergpalm/DeepLearnToolbox</t>
-  </si>
-  <si>
-    <t>Convolutional Autoencoders</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MATLAB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://torch.ch/</t>
-  </si>
-  <si>
-    <t>Hebel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/hannes-brt/hebel</t>
-  </si>
-  <si>
-    <t>Dropout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PyBrain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://pybrain.org/docs/</t>
-  </si>
-  <si>
-    <t>EBLearn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://eblearn.cs.nyu.edu:21991/doku.php</t>
-  </si>
-  <si>
-    <t>cudacnn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://bitbucket.org/intelligenceagent/cudacnn-public/wiki/Home</t>
-  </si>
-  <si>
-    <t>cuda-convnet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://code.google.com/p/cuda-convnet/</t>
-  </si>
-  <si>
-    <t>https://github.com/kyunghyuncho/deepmat</t>
-  </si>
-  <si>
-    <t>morb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/benanne/morb</t>
-  </si>
-  <si>
-    <t>http://packages.python.org/nolearn/</t>
-  </si>
-  <si>
-    <t>http://cs.nyu.edu/~wanli/dropc/</t>
-  </si>
-  <si>
-    <t>https://github.com/lisa-lab/pylearn2</t>
-  </si>
-  <si>
-    <t>http://deeplearning.net/tutorial/intro.html</t>
-  </si>
-  <si>
-    <t>o(Theano)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RNN-RBM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/yusugomori/DeepLearning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lua</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deepmat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PyCUDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Theano</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CUDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C++,Matlab</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CUDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KALDI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://kaldi.sourceforge.net/nnet1.html</t>
-  </si>
-  <si>
-    <t>Dropout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CUDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RNN</t>
+    <t>Convolutional
+Autoencoders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python,C++,
+Java,Scala</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -886,12 +971,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="22">
@@ -1172,7 +1263,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1276,8 +1367,180 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1319,9 +1582,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="275">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1373,6 +1645,92 @@
     <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1425,6 +1783,92 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="274" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -3306,30 +3750,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="13" max="13" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="27" customFormat="1">
+    <row r="1" spans="1:13" s="27" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>105</v>
@@ -3341,13 +3787,13 @@
         <v>107</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>110</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>108</v>
@@ -3356,395 +3802,577 @@
         <v>109</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="30" customFormat="1">
-      <c r="A2" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="E2" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M1" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="36">
+        <v>41675</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" t="s">
         <v>117</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>118</v>
       </c>
       <c r="K3" s="29">
         <v>41675</v>
       </c>
-      <c r="L3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="29"/>
+      <c r="M3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>189</v>
+        <v>113</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>183</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" t="s">
         <v>117</v>
       </c>
-      <c r="L4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="29">
+        <v>41675</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>114</v>
-      </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="29">
+        <v>41675</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
         <v>191</v>
       </c>
-      <c r="L5" t="s">
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="29">
+        <v>41675</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="29">
+        <v>41665</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="33" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="36">
+        <v>41664</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
         <v>182</v>
       </c>
-      <c r="J6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="29">
-        <v>41524</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J9" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="29">
+        <v>41659</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35" customHeight="1">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="I7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="29">
-        <v>41516</v>
-      </c>
-      <c r="L8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s">
-        <v>155</v>
-      </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K10" s="29">
         <v>41651</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="29">
+        <v>41661</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="29">
+        <v>41541</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="13" spans="1:13" s="30" customFormat="1">
+      <c r="A13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="E13" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="32">
+        <v>41537</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="29">
+        <v>41524</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="F15" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" t="s">
         <v>200</v>
       </c>
-      <c r="H11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="J15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="29">
+        <v>41516</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="29">
+        <v>41604</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="29">
+        <v>41129</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" t="s">
         <v>157</v>
       </c>
-      <c r="H12" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" t="s">
-        <v>196</v>
+      <c r="G18" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3771,35 +4399,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +4454,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="13"/>

--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -492,10 +492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pylearn2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -812,10 +808,6 @@
   </si>
   <si>
     <t>Deep Learning Toolbox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hinton</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -920,6 +912,17 @@
   <si>
     <t>Python,C++,
 Java,Scala</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pylearn2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hinton研究室</t>
+    <rPh sb="6" eb="9">
+      <t>ケンキュウシツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -985,7 +988,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1262,6 +1265,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1540,7 +1614,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1579,19 +1653,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="275">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -3753,7 +3840,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3763,8 +3850,8 @@
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -3773,612 +3860,647 @@
     <col min="13" max="13" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="27" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="27" customFormat="1" ht="19" thickBot="1">
+      <c r="A1" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="19" thickTop="1">
+      <c r="A2" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="46">
+        <v>41675</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="40">
+        <v>41675</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="40">
+        <v>41675</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="40">
+        <v>41675</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="40">
+        <v>41675</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="40">
+        <v>41665</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="31" customFormat="1">
+      <c r="A8" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="F8" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="39">
+        <v>41664</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="40">
+        <v>41659</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="F10" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="40">
+        <v>41651</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="40">
+        <v>41661</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="40">
+        <v>41541</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="29" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="33" customFormat="1">
-      <c r="A2" s="33" t="s">
+      <c r="K13" s="40">
+        <v>41537</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31">
+      <c r="A14" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="35" t="s">
+      <c r="D14" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="36">
-        <v>41675</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="K14" s="40">
+        <v>41524</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="29">
-        <v>41675</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K15" s="40">
+        <v>41516</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="40">
+        <v>41604</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="40">
+        <v>41129</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19" thickBot="1">
+      <c r="A18" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="29">
-        <v>41675</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="29">
-        <v>41675</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="29">
-        <v>41675</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="29">
-        <v>41665</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="33" customFormat="1">
-      <c r="A8" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="36">
-        <v>41664</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="29">
-        <v>41659</v>
-      </c>
-      <c r="L9" s="29"/>
-      <c r="M9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="35" customHeight="1">
-      <c r="A10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="29">
-        <v>41651</v>
-      </c>
-      <c r="L10" s="29"/>
-      <c r="M10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I18" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="29">
-        <v>41661</v>
-      </c>
-      <c r="L11" s="29"/>
-      <c r="M11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12" s="29">
-        <v>41541</v>
-      </c>
-      <c r="L12" s="29"/>
-      <c r="M12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="30" customFormat="1">
-      <c r="A13" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="E13" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="J13" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="32">
-        <v>41537</v>
-      </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="31">
-      <c r="A14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="29">
-        <v>41524</v>
-      </c>
-      <c r="L14" s="29"/>
-      <c r="M14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="29">
-        <v>41516</v>
-      </c>
-      <c r="L15" s="29"/>
-      <c r="M15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="29">
-        <v>41604</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="K17" s="29">
-        <v>41129</v>
-      </c>
-      <c r="L17" s="29"/>
-      <c r="M17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>203</v>
-      </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="11" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4399,35 +4521,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="30"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4454,11 +4576,11 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="30"/>
+      <c r="H1" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/sotsuron.xlsx
+++ b/doc/sotsuron.xlsx
@@ -4,18 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="c5mnist" sheetId="1" r:id="rId1"/>
-    <sheet name="c5mnist (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="c5cifar" sheetId="4" r:id="rId3"/>
-    <sheet name="c5cifar (2)" sheetId="5" r:id="rId4"/>
-    <sheet name="c6mnist" sheetId="6" r:id="rId5"/>
-    <sheet name="DLT_DBN_CIFAR" sheetId="7" r:id="rId6"/>
-    <sheet name="DL_Libraries" sheetId="8" r:id="rId7"/>
-    <sheet name="GPU_Libraries" sheetId="9" r:id="rId8"/>
-    <sheet name="noDL_Libraries" sheetId="10" r:id="rId9"/>
+    <sheet name="c5mnist (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="c5cifar" sheetId="4" r:id="rId2"/>
+    <sheet name="c5cifar (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="DL_Libraries" sheetId="8" r:id="rId4"/>
+    <sheet name="GPU_Libraries" sheetId="9" r:id="rId5"/>
+    <sheet name="noDL_Libraries" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="192">
   <si>
     <t>Regularization of Neural Networks using DropConnect</t>
   </si>
@@ -191,78 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Multi-column Deep Neural Networks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deep Big Simple Neural Nets</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Energy-Based Model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Convolutional Neural Networks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COSFIRE filters</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Multi-Stage Architecture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deformation Models</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A trainable feature extractor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invariant Support Vector Machines</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sparse Coding</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unsupervised learning of invariant feature hierarchies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shape contexts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Receptive Field Learning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sparse Activity, Sparse Connectivity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Convolutional Deep Belief Networks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deep Encoder Network</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deep Belief Networks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>neural networks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -376,28 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類誤差(%)</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>元論文名</t>
     <rPh sb="0" eb="1">
       <t>モト</t>
@@ -436,18 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Maxout Networks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SVM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最終更新日</t>
     <rPh sb="0" eb="5">
       <t>サイシュウコウシンビ</t>
@@ -930,7 +821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -941,15 +832,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -988,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1117,71 +999,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1339,282 +1156,282 @@
   </borders>
   <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1636,23 +1453,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1665,20 +1468,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="275">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1957,7 +1760,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="274" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2072,141 +1875,12 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <tableColumns count="3">
-    <tableColumn id="2" name="手法" dataDxfId="9"/>
-    <tableColumn id="3" name="発表学会/雑誌" dataDxfId="8"/>
-    <tableColumn id="1" name="分類誤差(%)" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル24" displayName="テーブル24" ref="A1:C24" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="2" name="論文名" dataDxfId="2"/>
@@ -2539,297 +2213,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" thickBot="1">
-      <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="7">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E2" t="str">
-        <f>A2</f>
-        <v>DropConnect</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="19" t="s">
-        <v>45</v>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="7">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="19" t="s">
-        <v>46</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="7">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="19" t="s">
-        <v>47</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="7">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19" t="s">
-        <v>48</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21" t="s">
-        <v>101</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="7">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="19" t="s">
-        <v>49</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="7">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19" t="s">
-        <v>50</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="7">
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="19" t="s">
-        <v>51</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="7">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19" t="s">
-        <v>52</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="7">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="19" t="s">
-        <v>53</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="7">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="19" t="s">
-        <v>54</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="7">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="19" t="s">
-        <v>55</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="7">
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="19" t="s">
-        <v>56</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="7">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="19" t="s">
-        <v>57</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="7">
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
-        <v>58</v>
+      <c r="A17" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="7">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
-        <v>59</v>
+      <c r="A18" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="7">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19" t="s">
-        <v>60</v>
+      <c r="A19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="6">
         <v>2009</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="7">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="7">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="19" t="s">
-        <v>61</v>
+      <c r="A21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B21" s="6">
         <v>2008</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="7">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="6">
         <v>2003</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="7">
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="19" t="s">
-        <v>62</v>
+      <c r="A23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="6">
         <v>2006</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="7">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19" thickBot="1">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="9">
         <v>2008</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -2852,307 +2513,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="88.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7">
-        <v>5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7">
-        <v>5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8.2000000000000007E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2009</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2008</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2003</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1.1900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2006</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="4" max="1048575" man="1"/>
-  </colBreaks>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="61"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F10"/>
@@ -3176,19 +2536,19 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3196,7 +2556,7 @@
         <v>0.90680000000000005</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3206,7 +2566,7 @@
         <v>9.319999999999995E-2</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="44">
@@ -3227,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="44">
@@ -3235,20 +2595,20 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>9.4999999999999973E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3256,20 +2616,20 @@
         <v>0.89</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3277,7 +2637,7 @@
         <v>0.88790000000000002</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -3287,10 +2647,10 @@
         <v>0.11209999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3298,17 +2658,17 @@
         <v>0.84870000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.15129999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3316,20 +2676,20 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0.15600000000000003</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3337,17 +2697,17 @@
         <v>0.83960000000000001</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.16039999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31">
@@ -3355,20 +2715,20 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0.20399999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K10"/>
@@ -3420,14 +2780,14 @@
         <v>手法</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H1" t="str">
         <f>C1</f>
         <v>発表学会/雑誌</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J1" t="str">
         <f>D1</f>
@@ -3453,21 +2813,21 @@
         <v>DropConnect</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H10" si="2">C2</f>
         <v>ICML 2013</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J10" si="3">D2</f>
         <v>9.319999999999995E-2</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3489,21 +2849,21 @@
         <v>Maxout Networks</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
         <v>ICML 2013</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J3">
         <f t="shared" si="3"/>
         <v>9.3500000000000028E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3511,10 +2871,10 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -3525,21 +2885,21 @@
         <v>Bayesian Optimization</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
         <v>NIPS 2012</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
         <v>9.4999999999999973E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3547,10 +2907,10 @@
         <v>0.89</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
@@ -3561,21 +2921,21 @@
         <v>Deep Convolutional Neural Networks</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
         <v>NIPS 2012</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3583,7 +2943,7 @@
         <v>0.88790000000000002</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -3597,21 +2957,21 @@
         <v>Multi-Column Deep Neural Networks</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
         <v>CVPR 2012</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
         <v>0.11209999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3619,10 +2979,10 @@
         <v>0.84870000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -3633,21 +2993,21 @@
         <v>Deep Convolutional Neural Networks</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
         <v>arXiv 2013</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
         <v>0.15129999999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3655,10 +3015,10 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
@@ -3669,21 +3029,21 @@
         <v>Dropout</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
         <v>arXiv 2012</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
         <v>0.15600000000000003</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3691,10 +3051,10 @@
         <v>0.83960000000000001</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -3705,21 +3065,21 @@
         <v>Sum-Product Networks</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
         <v>NIPS 2012</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
         <v>0.16039999999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3727,10 +3087,10 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -3741,21 +3101,21 @@
         <v>Single-Layer Networks</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
         <v>AISTATS 2011</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
         <v>0.20399999999999996</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3770,76 +3130,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="26">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3850,8 +3145,8 @@
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -3860,638 +3155,638 @@
     <col min="13" max="13" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="27" customFormat="1" ht="19" thickBot="1">
-      <c r="A1" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:13" s="17" customFormat="1" ht="19" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="19" thickTop="1">
+      <c r="A2" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="36">
+        <v>41675</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="30">
+        <v>41675</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="30">
+        <v>41675</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="48" t="s">
+      <c r="H5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="30">
+        <v>41675</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="30">
+        <v>41675</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="30">
+        <v>41665</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="21" customFormat="1">
+      <c r="A8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="F8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="29">
+        <v>41664</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="30">
+        <v>41659</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="30">
+        <v>41651</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="30">
+        <v>41661</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="30">
+        <v>41541</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="19" customFormat="1">
+      <c r="A13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="30">
+        <v>41537</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31">
+      <c r="A14" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="30">
+        <v>41524</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="30">
+        <v>41516</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="30">
+        <v>41604</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="30">
+        <v>41129</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19" thickBot="1">
+      <c r="A18" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="19" thickTop="1">
-      <c r="A2" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="45" t="s">
+      <c r="I18" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="46">
-        <v>41675</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="40">
-        <v>41675</v>
-      </c>
-      <c r="L3" s="28"/>
-      <c r="M3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="40">
-        <v>41675</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="40">
-        <v>41675</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="40">
-        <v>41675</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="40">
-        <v>41665</v>
-      </c>
-      <c r="L7" s="28"/>
-      <c r="M7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="39">
-        <v>41664</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="40">
-        <v>41659</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="35" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="40">
-        <v>41651</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" s="40">
-        <v>41661</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="M11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="K12" s="40">
-        <v>41541</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="29" customFormat="1">
-      <c r="A13" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" s="40">
-        <v>41537</v>
-      </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="31">
-      <c r="A14" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="40">
-        <v>41524</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="40">
-        <v>41516</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="40">
-        <v>41604</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="K17" s="40">
-        <v>41129</v>
-      </c>
-      <c r="L17" s="28"/>
-      <c r="M17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="19" thickBot="1">
-      <c r="A18" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4509,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -4521,35 +3816,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -4576,11 +3871,11 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B1" s="13"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="29"/>
+      <c r="H1" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
